--- a/evaluation/results/isolation_forest/augmented/magnitude_4/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/magnitude_4/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
       <c r="C2">
-        <v>0.4444444444444444</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="D2">
-        <v>0.4285714285714285</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>0.4363636363636363</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="F2">
-        <v>0.4316546762589928</v>
+        <v>0.2957746478873239</v>
       </c>
       <c r="G2">
-        <v>0.4291609353507566</v>
+        <v>0.5790031813361611</v>
       </c>
       <c r="H2">
-        <v>0.7002407704654896</v>
+        <v>0.7796615837346175</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>222</v>
       </c>
       <c r="K2">
-        <v>519</v>
+        <v>312</v>
       </c>
       <c r="L2">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9700934579439252</v>
+        <v>0.9780564263322884</v>
       </c>
       <c r="C2">
-        <v>0.9719101123595506</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="D2">
-        <v>0.971000935453695</v>
+        <v>0.731535756154748</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.4444444444444444</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C3">
-        <v>0.4285714285714285</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>0.4363636363636363</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
       <c r="C4">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
       <c r="D4">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
       <c r="E4">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7072689511941848</v>
+        <v>0.532238089709354</v>
       </c>
       <c r="C5">
-        <v>0.7002407704654896</v>
+        <v>0.6671348314606742</v>
       </c>
       <c r="D5">
-        <v>0.7036822859086657</v>
+        <v>0.4432586529851231</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9439045391218871</v>
+        <v>0.9336332468823163</v>
       </c>
       <c r="C6">
-        <v>0.9448398576512456</v>
+        <v>0.5925266903914591</v>
       </c>
       <c r="D6">
-        <v>0.9443642016912011</v>
+        <v>0.702810635554216</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>519</v>
+        <v>312</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
